--- a/on1/buku/waktu pemrosesan.xlsx
+++ b/on1/buku/waktu pemrosesan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\TUGAS AKHIR\TA1\Pewarnaan Citra\Proposal\on2\on1\buku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5ED68FD0-9739-479B-A40F-C1570CD8BB40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DC9A2CD-2CD7-4664-AD44-F37CACDB2747}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" activeTab="2" xr2:uid="{312391B2-76D4-4BA1-B2DB-1F73EFA14252}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
   <si>
     <t>Gambar</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>cara1</t>
+  </si>
+  <si>
+    <t>cara2</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -106,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -138,11 +147,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -153,6 +210,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -162,16 +238,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,51 +591,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932674B0-1378-4FD9-B350-78E610E8997B}">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -541,18 +645,18 @@
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -564,10 +668,10 @@
       <c r="C6" s="2">
         <v>539.60023863149399</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="20">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="21">
         <v>143.48839635482801</v>
       </c>
       <c r="F6" s="4"/>
@@ -585,10 +689,10 @@
       <c r="C7" s="2">
         <v>380.760476281276</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="20">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>22.366938588260599</v>
       </c>
       <c r="F7" s="1"/>
@@ -606,10 +710,10 @@
       <c r="C8" s="2">
         <v>407.46461287515098</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="20">
         <v>26</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>138.93962585451399</v>
       </c>
       <c r="F8" s="1"/>
@@ -627,10 +731,10 @@
       <c r="C9" s="2">
         <v>331.95005843073398</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="20">
         <v>15</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>31.640506940891498</v>
       </c>
       <c r="F9" s="1"/>
@@ -646,10 +750,10 @@
       <c r="C10" s="2">
         <v>168.286996660292</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="20">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>27.240373277048501</v>
       </c>
       <c r="F10" s="1"/>
@@ -665,10 +769,10 @@
       <c r="C11" s="2">
         <v>252.44587720000001</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>25.492714754184998</v>
       </c>
       <c r="F11" s="1"/>
@@ -684,10 +788,10 @@
       <c r="C12" s="2">
         <v>127.599332435948</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="20">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="21">
         <v>43.528285950004403</v>
       </c>
       <c r="F12" s="4"/>
@@ -703,10 +807,10 @@
       <c r="C13" s="2">
         <v>138.75067992984501</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
         <v>31.5955147096304</v>
       </c>
       <c r="F13" s="1"/>
@@ -722,10 +826,10 @@
       <c r="C14" s="2">
         <v>194.953547661166</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="5">
         <v>17.325176566538399</v>
       </c>
       <c r="F14" s="1"/>
@@ -741,10 +845,10 @@
       <c r="C15" s="2">
         <v>54.853617324948502</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="20">
         <v>12</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="21">
         <v>83.766171342698598</v>
       </c>
       <c r="F15" s="4"/>
@@ -760,16 +864,16 @@
       <c r="C16" s="2">
         <v>186.03038171599499</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="20">
         <v>29</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="5">
         <v>24.480455438778002</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -779,16 +883,16 @@
       <c r="C17" s="2">
         <v>228.79245290143001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="20">
         <v>8</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <v>21.725655339851698</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -798,16 +902,16 @@
       <c r="C18" s="2">
         <v>155.64037403221101</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="20">
         <v>21</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="5">
         <v>22.237363952673899</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -817,14 +921,14 @@
       <c r="C19" s="2">
         <v>1778.9391406623199</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4">
+      <c r="D19" s="20"/>
+      <c r="E19" s="21">
         <v>87.286457851523593</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -832,8 +936,8 @@
         <v>2</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4">
+      <c r="D20" s="5"/>
+      <c r="E20" s="21">
         <v>201.46657478850699</v>
       </c>
       <c r="F20" s="4"/>
@@ -841,7 +945,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -851,42 +955,54 @@
       <c r="C21" s="1">
         <v>208.527440167495</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="4"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -896,13 +1012,15 @@
       <c r="C25" s="2">
         <v>13.873243254978901</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="11">
+      <c r="D25" s="20"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8">
         <v>26.759684492917501</v>
       </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -912,13 +1030,15 @@
       <c r="C26" s="2">
         <v>15.083358285176001</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="11">
+      <c r="D26" s="20"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8">
         <v>12.245818757115099</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -928,13 +1048,15 @@
       <c r="C27" s="2">
         <v>30.723316600180901</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="11">
+      <c r="D27" s="20"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8">
         <v>33.394159569708201</v>
       </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -944,13 +1066,15 @@
       <c r="C28" s="2">
         <v>19.0442227202102</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="11">
+      <c r="D28" s="20"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8">
         <v>14.9227419211723</v>
       </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="8"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>5</v>
       </c>
@@ -960,13 +1084,15 @@
       <c r="C29" s="2">
         <v>28.142085042676101</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="11">
+      <c r="D29" s="20"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8">
         <v>22.236350146407201</v>
       </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="8"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>6</v>
       </c>
@@ -976,13 +1102,15 @@
       <c r="C30" s="2">
         <v>21.7813274632</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="11">
+      <c r="D30" s="20"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8">
         <v>9.5559120763771794</v>
       </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="8"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>7</v>
       </c>
@@ -992,13 +1120,15 @@
       <c r="C31" s="2">
         <v>30.7002973454134</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="11">
+      <c r="D31" s="20"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8">
         <v>10.504468487993901</v>
       </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>8</v>
       </c>
@@ -1008,13 +1138,15 @@
       <c r="C32" s="2">
         <v>33.563291528770797</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="11">
+      <c r="D32" s="20"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8">
         <v>13.026319316879601</v>
       </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="8"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>9</v>
       </c>
@@ -1024,13 +1156,15 @@
       <c r="C33" s="2">
         <v>10.124636247444201</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="11">
+      <c r="D33" s="20"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8">
         <v>11.564607022637899</v>
       </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="8"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>10</v>
       </c>
@@ -1040,13 +1174,15 @@
       <c r="C34" s="2">
         <v>17.894971181093702</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="11">
+      <c r="D34" s="20"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8">
         <v>10.416190316167899</v>
       </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="8"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>11</v>
       </c>
@@ -1056,13 +1192,15 @@
       <c r="C35" s="2">
         <v>36.297233649306101</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="11">
+      <c r="D35" s="20"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8">
         <v>19.107742496984098</v>
       </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>12</v>
       </c>
@@ -1072,13 +1210,15 @@
       <c r="C36" s="2">
         <v>37.821497978995097</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="11">
+      <c r="D36" s="20"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8">
         <v>6.4346446108739697</v>
       </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="8"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>13</v>
       </c>
@@ -1088,13 +1228,19 @@
       <c r="C37" s="2">
         <v>15.8895015358127</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="11">
+      <c r="D37" s="20"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8">
         <v>12.952082267452299</v>
       </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>14</v>
       </c>
@@ -1104,13 +1250,15 @@
       <c r="C38" s="2">
         <v>61.484103253430803</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="11">
+      <c r="D38" s="20"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8">
         <v>22.668381893457799</v>
       </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="8"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>15</v>
       </c>
@@ -1120,20 +1268,17 @@
       <c r="C39" s="1">
         <v>56.755517126151901</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="11">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="8">
         <v>114.315653584098</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
@@ -1149,6 +1294,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1157,48 +1307,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48B6712-9572-4C63-AC40-0AC735EEC25F}">
-  <dimension ref="A3:F19"/>
+  <dimension ref="A3:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1209,12 +1371,14 @@
         <v>21.601160307879901</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="11">
+      <c r="E5" s="2"/>
+      <c r="F5" s="8">
         <v>31.766860051313301</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1225,12 +1389,14 @@
         <v>21.061577875235798</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="11">
+      <c r="E6" s="2"/>
+      <c r="F6" s="8">
         <v>11.588225121628399</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1241,12 +1407,14 @@
         <v>10.4158640857714</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="11">
+      <c r="E7" s="2"/>
+      <c r="F7" s="8">
         <v>41.5403847932836</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1257,12 +1425,14 @@
         <v>27.8375512330867</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="11">
+      <c r="E8" s="2"/>
+      <c r="F8" s="8">
         <v>9.5295112018984796</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1273,12 +1443,14 @@
         <v>14.440586233001801</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="11">
+      <c r="E9" s="2"/>
+      <c r="F9" s="8">
         <v>10.902215081736999</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1289,12 +1461,14 @@
         <v>4.7180988017451799</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="11">
+      <c r="E10" s="2"/>
+      <c r="F10" s="8">
         <v>8.5280507167440405</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1305,12 +1479,14 @@
         <v>30.7816144251228</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="11">
+      <c r="E11" s="2"/>
+      <c r="F11" s="8">
         <v>11.7916358151135</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="8"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1321,12 +1497,14 @@
         <v>19.2788643104324</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="11">
+      <c r="E12" s="2"/>
+      <c r="F12" s="8">
         <v>14.5549020459252</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1337,12 +1515,14 @@
         <v>20.464342526812999</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="11">
+      <c r="E13" s="2"/>
+      <c r="F13" s="8">
         <v>17.214796285353401</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1353,12 +1533,14 @@
         <v>26.969944136820398</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="11">
+      <c r="E14" s="2"/>
+      <c r="F14" s="8">
         <v>12.716530328288201</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="8"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1369,12 +1551,14 @@
         <v>27.414818185079099</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="11">
+      <c r="E15" s="2"/>
+      <c r="F15" s="8">
         <v>17.288173959338302</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1385,12 +1569,14 @@
         <v>20.1701314172332</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="11">
+      <c r="E16" s="2"/>
+      <c r="F16" s="8">
         <v>8.5397281790944497</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1401,12 +1587,14 @@
         <v>4.1105415084757597</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="11">
+      <c r="E17" s="2"/>
+      <c r="F17" s="8">
         <v>29.815341890588201</v>
       </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="8"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1417,12 +1605,14 @@
         <v>37.115332639842002</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="11">
+      <c r="E18" s="2"/>
+      <c r="F18" s="8">
         <v>23.121350911009699</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1433,18 +1623,20 @@
         <v>47.462224672306498</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="11">
+      <c r="E19" s="1"/>
+      <c r="F19" s="8">
         <v>70.602697064492801</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1453,266 +1645,346 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096500B2-D73E-4CF2-9150-B452CAE846C8}">
-  <dimension ref="A3:F19"/>
+  <dimension ref="A3:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>20.019376348673799</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="11">
+      <c r="E5" s="2"/>
+      <c r="F5" s="8">
         <v>38.106238967541202</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>19.317651367694499</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="11">
+      <c r="E6" s="2"/>
+      <c r="F6" s="8">
         <v>12.828010126735199</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>26</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>25.439564119942499</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="11">
+      <c r="E7" s="2"/>
+      <c r="F7" s="8">
         <v>37.670769341139199</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>53.800085710995397</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="11">
+      <c r="E8" s="16"/>
+      <c r="F8" s="8">
         <v>22.346403064451302</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>17.039482939924898</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="11">
+      <c r="E9" s="2"/>
+      <c r="F9" s="8">
         <v>23.205716205985802</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>73</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>22.413646172173401</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="11">
+      <c r="E10" s="2"/>
+      <c r="F10" s="8">
         <v>12.195525281911801</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>6.3074121131913801</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="11">
+      <c r="E11" s="2"/>
+      <c r="F11" s="8">
         <v>14.140529406989399</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="8"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>26.843243651439401</v>
+      </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="11">
+      <c r="E12" s="2"/>
+      <c r="F12" s="8">
         <v>14.512942549090299</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3">
         <v>45</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>2.4090309937755698</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="11">
+      <c r="E13" s="2"/>
+      <c r="F13" s="8">
         <v>15.4727172839809</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>37.4659925578691</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="11">
+      <c r="E14" s="2"/>
+      <c r="F14" s="8">
         <v>15.659021271052501</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="8"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3">
         <v>29</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>13.8663493723652</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="11">
+      <c r="E15" s="2"/>
+      <c r="F15" s="8">
         <v>10.346535595549801</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>21.6095176962999</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="11">
+      <c r="E16" s="2"/>
+      <c r="F16" s="8">
         <v>12.033405388465299</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>74</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>44.984168386235602</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="11">
+      <c r="E17" s="2"/>
+      <c r="F17" s="8">
         <v>29.951939919235301</v>
       </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3">
         <v>57</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>56.662729876323198</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="11">
+      <c r="E18" s="2"/>
+      <c r="F18" s="8">
         <v>32.930456665917802</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>109.852801371376</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="11">
+      <c r="E19" s="1"/>
+      <c r="F19" s="8">
         <v>89.068334695773203</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1736,16 +2008,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -1756,10 +2028,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
@@ -1772,8 +2044,8 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1784,8 +2056,8 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1796,8 +2068,8 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1808,8 +2080,8 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="H8" t="s">
         <v>9</v>
       </c>
@@ -1823,8 +2095,8 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1835,8 +2107,8 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1847,8 +2119,8 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1859,8 +2131,8 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1871,8 +2143,8 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1883,8 +2155,8 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1895,8 +2167,8 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1907,8 +2179,8 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1919,8 +2191,8 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1931,8 +2203,8 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1943,17 +2215,17 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/on1/buku/waktu pemrosesan.xlsx
+++ b/on1/buku/waktu pemrosesan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\TUGAS AKHIR\TA1\Pewarnaan Citra\Proposal\on2\on1\buku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DC9A2CD-2CD7-4664-AD44-F37CACDB2747}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A2B2C9D-8DC7-45FF-929B-5F3952F86379}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" activeTab="2" xr2:uid="{312391B2-76D4-4BA1-B2DB-1F73EFA14252}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" activeTab="1" xr2:uid="{312391B2-76D4-4BA1-B2DB-1F73EFA14252}"/>
   </bookViews>
   <sheets>
     <sheet name="Pak Dody" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="14">
   <si>
     <t>Gambar</t>
   </si>
@@ -67,7 +67,10 @@
     <t>cara2</t>
   </si>
   <si>
-    <t>n</t>
+    <t>Citra Asli</t>
+  </si>
+  <si>
+    <t>citra asli</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +117,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -195,11 +204,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -226,16 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -253,15 +279,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,7 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,716 +655,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932674B0-1378-4FD9-B350-78E610E8997B}">
-  <dimension ref="A2:H39"/>
+  <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
         <v>539.60023863149399</v>
       </c>
-      <c r="D6" s="20">
+      <c r="E6" s="17">
         <v>7</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F6" s="18">
         <v>143.48839635482801</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1">
+      <c r="G6" s="4"/>
+      <c r="H6" s="1">
         <v>878</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="23">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
         <v>380.760476281276</v>
       </c>
-      <c r="D7" s="20">
+      <c r="E7" s="24">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>22.366938588260599</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
         <v>878</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3">
         <v>26</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
         <v>407.46461287515098</v>
       </c>
-      <c r="D8" s="20">
+      <c r="E8" s="17">
         <v>26</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>138.93962585451399</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
         <v>931</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="23">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
         <v>331.95005843073398</v>
       </c>
-      <c r="D9" s="20">
+      <c r="E9" s="17">
         <v>15</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>31.640506940891498</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
         <v>168.286996660292</v>
       </c>
-      <c r="D10" s="20">
+      <c r="E10" s="24">
         <v>5</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>27.240373277048501</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
       <c r="B11" s="3">
         <v>73</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
         <v>252.44587720000001</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="E11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
         <v>25.492714754184998</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
         <v>127.599332435948</v>
       </c>
-      <c r="D12" s="20">
+      <c r="E12" s="17">
         <v>5</v>
       </c>
-      <c r="E12" s="21">
+      <c r="F12" s="18">
         <v>43.528285950004403</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
       <c r="B13" s="3">
         <v>16</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="23">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
         <v>138.75067992984501</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="E13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
         <v>31.5955147096304</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="3">
         <v>45</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
         <v>194.953547661166</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="E14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5">
         <v>17.325176566538399</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
         <v>54.853617324948502</v>
       </c>
-      <c r="D15" s="20">
+      <c r="E15" s="17">
         <v>12</v>
       </c>
-      <c r="E15" s="21">
+      <c r="F15" s="18">
         <v>83.766171342698598</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="3">
         <v>29</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
         <v>186.03038171599499</v>
       </c>
-      <c r="D16" s="20">
+      <c r="E16" s="17">
         <v>29</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>24.480455438778002</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
         <v>228.79245290143001</v>
       </c>
-      <c r="D17" s="20">
+      <c r="E17" s="17">
         <v>8</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>21.725655339851698</v>
       </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
       <c r="B18" s="3">
         <v>74</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="23">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
         <v>155.64037403221101</v>
       </c>
-      <c r="D18" s="20">
+      <c r="E18" s="24">
         <v>21</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>22.237363952673899</v>
       </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>57</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
         <v>1778.9391406623199</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21">
+      <c r="E19" s="24"/>
+      <c r="F19" s="18">
         <v>87.286457851523593</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="21">
+      <c r="C20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="18">
         <v>201.46657478850699</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1">
+      <c r="G20" s="4"/>
+      <c r="H20" s="1">
         <v>2314</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7.9069631688147899</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="8">
+        <v>48.962340023447801</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="23">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>13.803009324374599</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="8">
+        <v>29.795601930951701</v>
+      </c>
+      <c r="H25" s="26">
+        <v>8</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <v>26.171464657429802</v>
+      </c>
+      <c r="E26" s="17">
+        <v>26</v>
+      </c>
+      <c r="F26" s="5">
+        <v>26</v>
+      </c>
+      <c r="G26" s="8">
+        <v>57.499361698512502</v>
+      </c>
+      <c r="H26" s="8">
+        <v>26</v>
+      </c>
+      <c r="I26" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>15</v>
+      </c>
+      <c r="C27" s="23">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43.575511198122697</v>
+      </c>
+      <c r="E27" s="24">
+        <v>17</v>
+      </c>
+      <c r="F27" s="25">
+        <v>17</v>
+      </c>
+      <c r="G27" s="8">
+        <v>18.388950833227899</v>
+      </c>
+      <c r="H27" s="26">
+        <v>17</v>
+      </c>
+      <c r="I27" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>22.003588911942298</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="8">
+        <v>27.466916499744201</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>73</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>32.965261371338201</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="8">
+        <v>11.098324859775699</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>88.045983005057707</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="8">
+        <v>15.030178577159701</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="3">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1">
-        <v>208.527440167495</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C31" s="23">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
+        <v>54.457203593820502</v>
+      </c>
+      <c r="E31" s="24">
+        <v>15</v>
+      </c>
+      <c r="F31" s="5">
+        <v>16</v>
+      </c>
+      <c r="G31" s="8">
+        <v>17.9664341394069</v>
+      </c>
+      <c r="H31" s="8">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>32.2970678910375</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="8">
+        <v>14.696250427139001</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2">
+        <v>24.834398427750699</v>
+      </c>
+      <c r="E33" s="17">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5">
+        <v>12</v>
+      </c>
+      <c r="G33" s="8">
+        <v>26.3592804807367</v>
+      </c>
+      <c r="H33" s="8">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2">
+        <v>38.502799200282404</v>
+      </c>
+      <c r="E34" s="17">
+        <v>29</v>
+      </c>
+      <c r="F34" s="5">
+        <v>29</v>
+      </c>
+      <c r="G34" s="8">
+        <v>12.2273153768169</v>
+      </c>
+      <c r="H34" s="8">
+        <v>29</v>
+      </c>
+      <c r="I34" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>60.487874537226702</v>
+      </c>
+      <c r="E35" s="24">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5">
+        <v>8</v>
+      </c>
+      <c r="G35" s="8">
+        <v>9.95113227245524</v>
+      </c>
+      <c r="H35" s="26">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3">
+        <v>74</v>
+      </c>
+      <c r="C36" s="23">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6.0375149852648802</v>
+      </c>
+      <c r="E36" s="24">
+        <v>21</v>
+      </c>
+      <c r="F36" s="25">
+        <v>21</v>
+      </c>
+      <c r="G36" s="8">
+        <v>30.251557240408001</v>
+      </c>
+      <c r="H36" s="26">
+        <v>21</v>
+      </c>
+      <c r="I36" s="26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>14</v>
+      </c>
+      <c r="B37" s="3">
+        <v>57</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2">
+        <v>89.818727663695697</v>
+      </c>
+      <c r="E37" s="24">
+        <v>25</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="8">
+        <v>32.591568228028997</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2">
-        <v>13.873243254978901</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="8">
-        <v>26.759684492917501</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>15.083358285176001</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="8">
-        <v>12.245818757115099</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2">
-        <v>30.723316600180901</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="8">
-        <v>33.394159569708201</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2">
-        <v>19.0442227202102</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="8">
-        <v>14.9227419211723</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2">
-        <v>28.142085042676101</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="8">
-        <v>22.236350146407201</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3">
-        <v>73</v>
-      </c>
-      <c r="C30" s="2">
-        <v>21.7813274632</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="8">
-        <v>9.5559120763771794</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2">
-        <v>30.7002973454134</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="8">
-        <v>10.504468487993901</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>33.563291528770797</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="8">
-        <v>13.026319316879601</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>9</v>
-      </c>
-      <c r="B33" s="3">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2">
-        <v>10.124636247444201</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="8">
-        <v>11.564607022637899</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>10</v>
-      </c>
-      <c r="B34" s="3">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2">
-        <v>17.894971181093702</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="8">
-        <v>10.416190316167899</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>11</v>
-      </c>
-      <c r="B35" s="3">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2">
-        <v>36.297233649306101</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="8">
-        <v>19.107742496984098</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>12</v>
-      </c>
-      <c r="B36" s="3">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2">
-        <v>37.821497978995097</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="8">
-        <v>6.4346446108739697</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>13</v>
-      </c>
-      <c r="B37" s="3">
-        <v>74</v>
-      </c>
-      <c r="C37" s="2">
-        <v>15.8895015358127</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="8">
-        <v>12.952082267452299</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>14</v>
-      </c>
-      <c r="B38" s="3">
-        <v>57</v>
-      </c>
-      <c r="C38" s="2">
-        <v>61.484103253430803</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="8">
-        <v>22.668381893457799</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1">
-        <v>56.755517126151901</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="8">
-        <v>114.315653584098</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="1"/>
+      <c r="C38" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>110.822307891264</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="8">
+        <v>139.485602629477</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="G23:H23"/>
+  <mergeCells count="23">
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1307,337 +1572,509 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48B6712-9572-4C63-AC40-0AC735EEC25F}">
-  <dimension ref="A3:H19"/>
+  <dimension ref="A3:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="19"/>
+    <col min="5" max="6" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="18" t="s">
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>21.601160307879901</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="8">
-        <v>31.766860051313301</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="17">
+        <v>4.5113185711561696</v>
+      </c>
+      <c r="E5" s="17">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17">
+        <v>7</v>
+      </c>
+      <c r="G5" s="22">
+        <v>52.108172562286803</v>
+      </c>
+      <c r="H5" s="22">
+        <v>7</v>
+      </c>
+      <c r="I5" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>21.061577875235798</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8">
-        <v>11.588225121628399</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17">
+        <v>58.960680552854797</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="22">
+        <v>29.710654027756</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>26</v>
       </c>
-      <c r="C7" s="2">
-        <v>10.4158640857714</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8">
-        <v>41.5403847932836</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17">
+        <v>22.036405650884401</v>
+      </c>
+      <c r="E7" s="17">
+        <v>26</v>
+      </c>
+      <c r="F7" s="17">
+        <v>26</v>
+      </c>
+      <c r="G7" s="22">
+        <v>55.000265439778602</v>
+      </c>
+      <c r="H7" s="22">
+        <v>26</v>
+      </c>
+      <c r="I7" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>27.8375512330867</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8">
-        <v>9.5295112018984796</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17">
+        <v>72.859622758346006</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="22">
+        <v>18.607214826869502</v>
+      </c>
+      <c r="H8" s="22">
+        <v>15</v>
+      </c>
+      <c r="I8" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>14.440586233001801</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8">
-        <v>10.902215081736999</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17">
+        <v>48.221298615975101</v>
+      </c>
+      <c r="E9" s="17">
+        <v>6</v>
+      </c>
+      <c r="F9" s="17">
+        <v>6</v>
+      </c>
+      <c r="G9" s="22">
+        <v>29.518891345266201</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>73</v>
       </c>
-      <c r="C10" s="2">
-        <v>4.7180988017451799</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8">
-        <v>8.5280507167440405</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17">
+        <v>38.390935779054402</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="22">
+        <v>18.813246690970299</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
-        <v>30.7816144251228</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="8">
-        <v>11.7916358151135</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17">
+        <v>49.801191269561102</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5</v>
+      </c>
+      <c r="G11" s="22">
+        <v>27.0242713149464</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>16</v>
       </c>
-      <c r="C12" s="2">
-        <v>19.2788643104324</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8">
-        <v>14.5549020459252</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="17">
+        <v>54.595612125651598</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="22">
+        <v>31.723597898381499</v>
+      </c>
+      <c r="H12" s="22">
+        <v>16</v>
+      </c>
+      <c r="I12" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3">
         <v>45</v>
       </c>
-      <c r="C13" s="2">
-        <v>20.464342526812999</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="8">
-        <v>17.214796285353401</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="17">
+        <v>40.859278404038598</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="17">
+        <v>45</v>
+      </c>
+      <c r="G13" s="22">
+        <v>26.484563525251701</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
-        <v>26.969944136820398</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8">
-        <v>12.716530328288201</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>12</v>
+      </c>
+      <c r="D14" s="17">
+        <v>55.107210862263898</v>
+      </c>
+      <c r="E14" s="17">
+        <v>12</v>
+      </c>
+      <c r="F14" s="17">
+        <v>12</v>
+      </c>
+      <c r="G14" s="22">
+        <v>45.649256636466397</v>
+      </c>
+      <c r="H14" s="22">
+        <v>12</v>
+      </c>
+      <c r="I14" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3">
         <v>29</v>
       </c>
-      <c r="C15" s="2">
-        <v>27.414818185079099</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="8">
-        <v>17.288173959338302</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="23">
+        <v>28</v>
+      </c>
+      <c r="D15" s="17">
+        <v>30.1703190752274</v>
+      </c>
+      <c r="E15" s="17">
+        <v>29</v>
+      </c>
+      <c r="F15" s="17">
+        <v>29</v>
+      </c>
+      <c r="G15" s="22">
+        <v>22.5643759427738</v>
+      </c>
+      <c r="H15" s="22">
+        <v>29</v>
+      </c>
+      <c r="I15" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="2">
-        <v>20.1701314172332</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8">
-        <v>8.5397281790944497</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>8</v>
+      </c>
+      <c r="D16" s="17">
+        <v>45.784275996956701</v>
+      </c>
+      <c r="E16" s="17">
+        <v>8</v>
+      </c>
+      <c r="F16" s="17">
+        <v>8</v>
+      </c>
+      <c r="G16" s="22">
+        <v>18.016999850855299</v>
+      </c>
+      <c r="H16" s="22">
+        <v>8</v>
+      </c>
+      <c r="I16" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>74</v>
       </c>
-      <c r="C17" s="2">
-        <v>4.1105415084757597</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="8">
-        <v>29.815341890588201</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="17">
+        <v>74.965752227258704</v>
+      </c>
+      <c r="E17" s="24">
+        <v>21</v>
+      </c>
+      <c r="F17" s="24">
+        <v>21</v>
+      </c>
+      <c r="G17" s="22">
+        <v>51.721161365108102</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3">
         <v>57</v>
       </c>
-      <c r="C18" s="2">
-        <v>37.115332639842002</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="8">
-        <v>23.121350911009699</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="17">
+        <v>41.619012360129702</v>
+      </c>
+      <c r="E18" s="17">
+        <v>57</v>
+      </c>
+      <c r="F18" s="17">
+        <v>57</v>
+      </c>
+      <c r="G18" s="22">
+        <v>55.979959107926</v>
+      </c>
+      <c r="H18" s="22">
+        <v>57</v>
+      </c>
+      <c r="I18" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
-        <v>47.462224672306498</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="8">
-        <v>70.602697064492801</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10">
+        <v>115.299904283095</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="22">
+        <v>210.41299182347299</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
+  <mergeCells count="7">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1645,347 +2082,360 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096500B2-D73E-4CF2-9150-B452CAE846C8}">
-  <dimension ref="A3:H19"/>
+  <dimension ref="A3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="7" t="s">
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>20.019376348673799</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
+        <v>3.26963886219598</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="8">
-        <v>38.106238967541202</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5" s="8">
+        <v>24.989314821772101</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>19.317651367694499</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
+        <v>26.971842994070101</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="8">
-        <v>12.828010126735199</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6" s="8">
+        <v>12.689954633585501</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>26</v>
       </c>
-      <c r="C7" s="2">
-        <v>25.439564119942499</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
+        <v>20.916715720793601</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="8">
-        <v>37.670769341139199</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7" s="8">
+        <v>24.5318382365435</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>53.800085710995397</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="8">
-        <v>22.346403064451302</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2">
+        <v>45.752822327147904</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="8">
+        <v>7.9059255749149999</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>17.039482939924898</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
+        <v>18.4961915244286</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="8">
-        <v>23.205716205985802</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9" s="8">
+        <v>12.9643600843517</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>73</v>
       </c>
-      <c r="C10" s="2">
-        <v>22.413646172173401</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2">
+        <v>37.698708860138197</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="8">
-        <v>12.195525281911801</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="8">
+        <v>8.46767128511744</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
-        <v>6.3074121131913801</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
+        <v>15.015429867072401</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="8">
-        <v>14.140529406989399</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="8">
+        <v>11.706824973994101</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>16</v>
       </c>
-      <c r="C12" s="2">
-        <v>26.843243651439401</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2">
+        <v>12.993411203220001</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="8">
-        <v>14.512942549090299</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+      <c r="G12" s="8">
+        <v>14.514714538963601</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3">
         <v>45</v>
       </c>
-      <c r="C13" s="2">
-        <v>2.4090309937755698</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
+        <v>30.9747926605712</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="8">
-        <v>15.4727172839809</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="8">
+        <v>11.5090179672146</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
-        <v>37.4659925578691</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2">
+        <v>2.0707987924944402</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="8">
-        <v>15.659021271052501</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+      <c r="G14" s="8">
+        <v>21.041918718035401</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3">
         <v>29</v>
       </c>
-      <c r="C15" s="2">
-        <v>13.8663493723652</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
+        <v>26.440341937785899</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="8">
-        <v>10.346535595549801</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="8">
+        <v>9.8819027085807303</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="2">
-        <v>21.6095176962999</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2">
+        <v>15.886449167149699</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="8">
-        <v>12.033405388465299</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="G16" s="8">
+        <v>7.8998189496815998</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>74</v>
       </c>
-      <c r="C17" s="2">
-        <v>44.984168386235602</v>
-      </c>
-      <c r="D17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
+        <v>32.7535114133441</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="8">
-        <v>29.951939919235301</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="8">
+        <v>23.493601315493901</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3">
         <v>57</v>
       </c>
-      <c r="C18" s="2">
-        <v>56.662729876323198</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2">
+        <v>60.263602089535901</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="8">
-        <v>32.930456665917802</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="G18" s="8">
+        <v>25.486600954903601</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
-        <v>109.852801371376</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1">
+        <v>48.557346885991201</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="8">
-        <v>89.068334695773203</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="8">
+        <v>93.195523394004397</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
+  <mergeCells count="7">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2008,32 +2458,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">

--- a/on1/buku/waktu pemrosesan.xlsx
+++ b/on1/buku/waktu pemrosesan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\TUGAS AKHIR\TA1\Pewarnaan Citra\Proposal\on2\on1\buku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A2B2C9D-8DC7-45FF-929B-5F3952F86379}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5776528-250F-4B4D-8543-461B1649FC16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" activeTab="1" xr2:uid="{312391B2-76D4-4BA1-B2DB-1F73EFA14252}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="15">
   <si>
     <t>Gambar</t>
   </si>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>citra asli</t>
+  </si>
+  <si>
+    <t>t K awal = 50, 
+K akhir fleksibel (semua citra)</t>
   </si>
 </sst>
 </file>
@@ -234,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -296,6 +300,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,60 +680,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="33"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="29"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1061,42 +1068,42 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31" t="s">
+      <c r="F22" s="31"/>
+      <c r="G22" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="32"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="32"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1572,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48B6712-9572-4C63-AC40-0AC735EEC25F}">
-  <dimension ref="A3:I19"/>
+  <dimension ref="A3:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G5" sqref="G5:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,53 +1592,68 @@
     <col min="7" max="7" width="15.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="19"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="33"/>
+      <c r="K4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1659,8 +1681,17 @@
       <c r="I5" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="22">
+        <v>0.64753088797111702</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1688,8 +1719,17 @@
       <c r="I6" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="22">
+        <v>0.38108744688386598</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1717,8 +1757,17 @@
       <c r="I7" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="22">
+        <v>0.59008050770981602</v>
+      </c>
+      <c r="K7" s="22">
+        <v>26</v>
+      </c>
+      <c r="L7" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1746,8 +1795,17 @@
       <c r="I8" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="22">
+        <v>0.58042275420794598</v>
+      </c>
+      <c r="K8" s="22">
+        <v>15</v>
+      </c>
+      <c r="L8" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1775,8 +1833,17 @@
       <c r="I9" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="22">
+        <v>0.58447608065421097</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1804,8 +1871,17 @@
       <c r="I10" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="22">
+        <v>0.57572036691760697</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1833,8 +1909,17 @@
       <c r="I11" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="22">
+        <v>0.58410076565769598</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1862,8 +1947,17 @@
       <c r="I12" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="22">
+        <v>0.61205380370799101</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1891,8 +1985,17 @@
       <c r="I13" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="22">
+        <v>0.58206824993713302</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1920,8 +2023,17 @@
       <c r="I14" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="22">
+        <v>0.56437105286806399</v>
+      </c>
+      <c r="K14" s="22">
+        <v>12</v>
+      </c>
+      <c r="L14" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1949,8 +2061,17 @@
       <c r="I15" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="22">
+        <v>0.57726165043448197</v>
+      </c>
+      <c r="K15" s="22">
+        <v>29</v>
+      </c>
+      <c r="L15" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1978,8 +2099,17 @@
       <c r="I16" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="22">
+        <v>0.57735151458857703</v>
+      </c>
+      <c r="K16" s="22">
+        <v>8</v>
+      </c>
+      <c r="L16" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2007,8 +2137,17 @@
       <c r="I17" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="22">
+        <v>0.61212365609667896</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2036,8 +2175,17 @@
       <c r="I18" s="10">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="22">
+        <v>0.84080640618144598</v>
+      </c>
+      <c r="K18" s="22">
+        <v>57</v>
+      </c>
+      <c r="L18" s="22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2065,9 +2213,20 @@
       <c r="I19" s="25" t="s">
         <v>6</v>
       </c>
+      <c r="J19" s="22">
+        <v>1.6554744260965499</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="A3:A4"/>
@@ -2099,42 +2258,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="20" t="s">
         <v>10</v>
       </c>
@@ -2458,32 +2617,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
